--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\modelz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\diploma\modelz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA00A54-D19C-4984-A8B4-8DF0E6AAF34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9B390B-AFC7-42A4-B5AF-75E42A28A5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95705682-6DEC-4651-AA93-826AF7011AAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Stock Name</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>First Solar</t>
+  </si>
+  <si>
+    <t>Baxter International</t>
+  </si>
+  <si>
+    <t>ICU Medical</t>
   </si>
 </sst>
 </file>
@@ -416,6 +422,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,6 +440,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,18 +450,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -781,34 +787,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47BAB04-299C-4B1D-A1B7-A616FD6A37A4}">
-  <dimension ref="B1:U56"/>
+  <dimension ref="B1:U58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="17" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" style="15" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="8" customWidth="1"/>
+    <col min="18" max="18" width="23.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.3">
@@ -832,39 +838,39 @@
       <c r="T1"/>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="8" t="s">
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="9"/>
+      <c r="T2" s="12"/>
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
@@ -970,10 +976,10 @@
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="8">
         <v>152.47</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="9">
         <f>+C12/3</f>
         <v>50.823333333333331</v>
       </c>
@@ -987,10 +993,10 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="8">
         <v>26.71</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="9">
         <f>+C14/1.5</f>
         <v>17.806666666666668</v>
       </c>
@@ -1039,10 +1045,10 @@
       <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="8">
         <v>48.9</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="9">
         <v>40</v>
       </c>
     </row>
@@ -1085,10 +1091,10 @@
       <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="8">
         <v>228.5</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="9">
         <v>220</v>
       </c>
     </row>
@@ -1146,10 +1152,10 @@
       <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="8">
         <v>479</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="9">
         <v>410</v>
       </c>
     </row>
@@ -1217,10 +1223,10 @@
       <c r="B55" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="8">
         <v>219.85</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="9">
         <f>+C55/1.38</f>
         <v>159.31159420289856</v>
       </c>
@@ -1229,12 +1235,22 @@
       <c r="B56" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="8">
         <v>205.14</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="9">
         <f>+C56/1.5</f>
         <v>136.76</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\diploma\modelz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9B390B-AFC7-42A4-B5AF-75E42A28A5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794CDCEF-A947-4CAF-A09E-6D8DB00BAA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95705682-6DEC-4651-AA93-826AF7011AAB}"/>
+    <workbookView xWindow="23040" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{95705682-6DEC-4651-AA93-826AF7011AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Stock Name</t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>ICU Medical</t>
+  </si>
+  <si>
+    <t>&lt;35</t>
+  </si>
+  <si>
+    <t>&lt;8</t>
+  </si>
+  <si>
+    <t>Ferroglobe</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +305,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -399,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,6 +466,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -787,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47BAB04-299C-4B1D-A1B7-A616FD6A37A4}">
-  <dimension ref="B1:U58"/>
+  <dimension ref="B1:U59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,16 +958,35 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
+      <c r="C4" s="8">
+        <v>55.35</v>
+      </c>
+      <c r="D4" s="9">
+        <f>+C4*0.85</f>
+        <v>47.047499999999999</v>
+      </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>26</v>
       </c>
+      <c r="C5" s="8">
+        <v>234.96</v>
+      </c>
+      <c r="D5" s="9">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>27</v>
       </c>
+      <c r="C6" s="8">
+        <v>496.29</v>
+      </c>
+      <c r="D6" s="9">
+        <v>307.69979999999998</v>
+      </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -988,6 +1029,12 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
+      <c r="C13" s="8">
+        <v>720</v>
+      </c>
+      <c r="D13" s="9">
+        <v>200</v>
+      </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -1173,6 +1220,7 @@
       <c r="B45" t="s">
         <v>66</v>
       </c>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
@@ -1198,6 +1246,9 @@
       <c r="B50" t="s">
         <v>71</v>
       </c>
+      <c r="C50" s="8">
+        <v>171.72</v>
+      </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
@@ -1218,6 +1269,12 @@
       <c r="B54" t="s">
         <v>75</v>
       </c>
+      <c r="C54" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
@@ -1227,8 +1284,7 @@
         <v>219.85</v>
       </c>
       <c r="D55" s="9">
-        <f>+C55/1.38</f>
-        <v>159.31159420289856</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -1247,11 +1303,29 @@
       <c r="B57" t="s">
         <v>79</v>
       </c>
+      <c r="C57" s="8">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>80</v>
       </c>
+      <c r="C58" s="8">
+        <v>183.05</v>
+      </c>
+      <c r="D58" s="8">
+        <v>54.863725490196096</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\diploma\modelz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794CDCEF-A947-4CAF-A09E-6D8DB00BAA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87964969-0B7F-485F-AC1F-F7832BBCFD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{95705682-6DEC-4651-AA93-826AF7011AAB}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95705682-6DEC-4651-AA93-826AF7011AAB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Note" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>Stock Name</t>
   </si>
@@ -134,9 +135,6 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>Anglo American Platinum</t>
-  </si>
-  <si>
     <t>ASML</t>
   </si>
   <si>
@@ -288,6 +286,33 @@
   </si>
   <si>
     <t>Ferroglobe</t>
+  </si>
+  <si>
+    <t>hell nah</t>
+  </si>
+  <si>
+    <t>WOW</t>
+  </si>
+  <si>
+    <t>Howmet Aerospace</t>
+  </si>
+  <si>
+    <t>careful</t>
+  </si>
+  <si>
+    <t>maybe 2 yrs too early</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>DEAD</t>
+  </si>
+  <si>
+    <t>Too early</t>
+  </si>
+  <si>
+    <t>ew</t>
   </si>
 </sst>
 </file>
@@ -297,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +337,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -415,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,6 +479,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,12 +503,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47BAB04-299C-4B1D-A1B7-A616FD6A37A4}">
   <dimension ref="B1:U59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,39 +893,39 @@
       <c r="T1"/>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="11" t="s">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="12"/>
+      <c r="T2" s="13"/>
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
@@ -903,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
@@ -1010,47 +1043,59 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="8">
+        <v>152.47</v>
+      </c>
+      <c r="D11" s="9">
+        <f>+C11/3</f>
+        <v>50.823333333333331</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="8">
-        <v>152.47</v>
+        <v>720</v>
       </c>
       <c r="D12" s="9">
-        <f>+C12/3</f>
-        <v>50.823333333333331</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="8">
-        <v>720</v>
+        <v>26.71</v>
       </c>
       <c r="D13" s="9">
-        <v>200</v>
+        <f>+C13/1.5</f>
+        <v>17.806666666666668</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="8">
-        <v>26.71</v>
-      </c>
-      <c r="D14" s="9">
-        <f>+C14/1.5</f>
-        <v>17.806666666666668</v>
+        <v>33</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C15" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="D15" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
@@ -1062,16 +1107,34 @@
       <c r="B17" t="s">
         <v>38</v>
       </c>
+      <c r="C17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>39</v>
       </c>
+      <c r="C18" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>40</v>
       </c>
+      <c r="C19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
@@ -1082,73 +1145,132 @@
       <c r="B21" t="s">
         <v>42</v>
       </c>
+      <c r="C21" s="8">
+        <v>86.84</v>
+      </c>
+      <c r="D21" s="9">
+        <f>+C21/1.2</f>
+        <v>72.366666666666674</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>43</v>
       </c>
+      <c r="C22" s="8">
+        <v>48.9</v>
+      </c>
+      <c r="D22" s="9">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="8">
-        <v>48.9</v>
+        <v>3215.04</v>
       </c>
       <c r="D23" s="9">
-        <v>40</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>45</v>
       </c>
+      <c r="C24" s="8">
+        <v>126.46</v>
+      </c>
+      <c r="D24" s="9">
+        <f>+C24/2</f>
+        <v>63.23</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>46</v>
       </c>
+      <c r="C25" s="8">
+        <v>165.05</v>
+      </c>
+      <c r="D25" s="9">
+        <v>130</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>47</v>
       </c>
+      <c r="C26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>48</v>
       </c>
+      <c r="C27" s="8">
+        <v>20.69</v>
+      </c>
+      <c r="D27" s="9">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>49</v>
       </c>
+      <c r="C28" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>50</v>
       </c>
+      <c r="C29" s="8">
+        <v>22.77</v>
+      </c>
+      <c r="D29" s="9">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>51</v>
       </c>
+      <c r="C30" s="8">
+        <v>228.5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>220</v>
+      </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="8">
-        <v>228.5</v>
-      </c>
-      <c r="D31" s="9">
-        <v>220</v>
+      <c r="C31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>53</v>
       </c>
+      <c r="C32" s="8">
+        <v>18.66</v>
+      </c>
+      <c r="D32" s="9">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
@@ -1159,6 +1281,9 @@
       <c r="B34" t="s">
         <v>55</v>
       </c>
+      <c r="D34" s="9">
+        <v>500</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
@@ -1169,6 +1294,12 @@
       <c r="B36" t="s">
         <v>57</v>
       </c>
+      <c r="C36" s="8">
+        <v>135.13999999999999</v>
+      </c>
+      <c r="D36" s="9">
+        <v>83.6</v>
+      </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
@@ -1194,33 +1325,51 @@
       <c r="B41" t="s">
         <v>62</v>
       </c>
+      <c r="C41" s="8">
+        <v>479</v>
+      </c>
+      <c r="D41" s="9">
+        <v>410</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>63</v>
       </c>
       <c r="C42" s="8">
-        <v>479</v>
-      </c>
-      <c r="D42" s="9">
-        <v>410</v>
+        <v>152.65</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>64</v>
       </c>
+      <c r="C43" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>65</v>
       </c>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="C45" s="8">
+        <v>2089</v>
+      </c>
+      <c r="D45" s="9">
+        <v>1500</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
@@ -1236,24 +1385,33 @@
       <c r="B48" t="s">
         <v>69</v>
       </c>
+      <c r="C48" s="8">
+        <v>173.97</v>
+      </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>70</v>
       </c>
+      <c r="C49" s="8">
+        <v>171.72</v>
+      </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="8">
-        <v>171.72</v>
-      </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>72</v>
       </c>
+      <c r="C51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
@@ -1264,27 +1422,34 @@
       <c r="B53" t="s">
         <v>74</v>
       </c>
+      <c r="C53" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>75</v>
       </c>
       <c r="C54" s="8">
-        <v>8.4</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>82</v>
+        <v>219.85</v>
+      </c>
+      <c r="D54" s="9">
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="8">
-        <v>219.85</v>
+        <v>205.14</v>
       </c>
       <c r="D55" s="9">
-        <v>150</v>
+        <f>+C55/1.5</f>
+        <v>136.76</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -1292,11 +1457,10 @@
         <v>78</v>
       </c>
       <c r="C56" s="8">
-        <v>205.14</v>
-      </c>
-      <c r="D56" s="9">
-        <f>+C56/1.5</f>
-        <v>136.76</v>
+        <v>36.549999999999997</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -1304,28 +1468,30 @@
         <v>79</v>
       </c>
       <c r="C57" s="8">
-        <v>36.549999999999997</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>81</v>
+        <v>183.05</v>
+      </c>
+      <c r="D57" s="8">
+        <v>54.863725490196096</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="8">
-        <v>183.05</v>
-      </c>
-      <c r="D58" s="8">
-        <v>54.863725490196096</v>
+        <v>82</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="C59" s="8">
+        <v>105.54</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1339,4 +1505,72 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839497E9-6DBD-400A-BFC3-2FB0D9006545}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="20">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <f>+A1+1</f>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <f t="shared" ref="A3:A7" si="0">+A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\diploma\modelz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\models\modelz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87964969-0B7F-485F-AC1F-F7832BBCFD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C1053B-10DD-47D3-81FF-C695435F3A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95705682-6DEC-4651-AA93-826AF7011AAB}"/>
+    <workbookView xWindow="13200" yWindow="2205" windowWidth="43200" windowHeight="11385" xr2:uid="{95705682-6DEC-4651-AA93-826AF7011AAB}"/>
   </bookViews>
   <sheets>
-    <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="Note" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Stock Name</t>
   </si>
@@ -135,6 +134,9 @@
     <t>Amazon</t>
   </si>
   <si>
+    <t>Anglo American Platinum</t>
+  </si>
+  <si>
     <t>ASML</t>
   </si>
   <si>
@@ -273,46 +275,52 @@
     <t>First Solar</t>
   </si>
   <si>
-    <t>Baxter International</t>
-  </si>
-  <si>
-    <t>ICU Medical</t>
-  </si>
-  <si>
-    <t>&lt;35</t>
-  </si>
-  <si>
-    <t>&lt;8</t>
-  </si>
-  <si>
-    <t>Ferroglobe</t>
-  </si>
-  <si>
-    <t>hell nah</t>
-  </si>
-  <si>
-    <t>WOW</t>
-  </si>
-  <si>
-    <t>Howmet Aerospace</t>
-  </si>
-  <si>
-    <t>careful</t>
-  </si>
-  <si>
-    <t>maybe 2 yrs too early</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>DEAD</t>
-  </si>
-  <si>
-    <t>Too early</t>
-  </si>
-  <si>
-    <t>ew</t>
+    <t>Cal-Maine Foods</t>
+  </si>
+  <si>
+    <t>IntChains Group</t>
+  </si>
+  <si>
+    <t>70x PE for what???</t>
+  </si>
+  <si>
+    <t>dying</t>
+  </si>
+  <si>
+    <t>Globalstar, Inc.</t>
+  </si>
+  <si>
+    <t>Spire Global</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>AppLovin</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>need to check maxar</t>
+  </si>
+  <si>
+    <t>new car is so ugly</t>
+  </si>
+  <si>
+    <t>dd roadmap to 2028</t>
+  </si>
+  <si>
+    <t>dd so slow I fumbled</t>
+  </si>
+  <si>
+    <t>DD FASTER NEXT TIME</t>
+  </si>
+  <si>
+    <t>yeah this bad boy going to 150 selling to gym bros</t>
+  </si>
+  <si>
+    <t>catch up w sales rep</t>
   </si>
 </sst>
 </file>
@@ -322,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,26 +344,23 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -443,9 +448,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -479,7 +485,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -503,12 +515,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -842,37 +851,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47BAB04-299C-4B1D-A1B7-A616FD6A37A4}">
-  <dimension ref="B1:U59"/>
+  <dimension ref="B1:U62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" style="8" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
@@ -892,43 +901,43 @@
       <c r="S1"/>
       <c r="T1"/>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="12" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="12" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="12" t="s">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="13"/>
+      <c r="T2" s="15"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -936,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
@@ -987,510 +996,381 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8">
-        <v>55.35</v>
-      </c>
-      <c r="D4" s="9">
-        <f>+C4*0.85</f>
-        <v>47.047499999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="8">
-        <v>234.96</v>
-      </c>
-      <c r="D5" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="8">
-        <v>496.29</v>
-      </c>
-      <c r="D6" s="9">
-        <v>307.69979999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="O8" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="8">
-        <v>152.47</v>
-      </c>
-      <c r="D11" s="9">
-        <f>+C11/3</f>
-        <v>50.823333333333331</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8">
-        <v>720</v>
-      </c>
-      <c r="D12" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8">
-        <v>26.71</v>
+        <v>152.47</v>
       </c>
       <c r="D13" s="9">
-        <f>+C13/1.5</f>
-        <v>17.806666666666668</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+        <f>+C13/3</f>
+        <v>50.823333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="8" t="s">
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8">
+        <v>26.71</v>
+      </c>
+      <c r="D15" s="9">
+        <f>+C15/1.5</f>
+        <v>17.806666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="8">
+        <v>48.9</v>
+      </c>
+      <c r="D24" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="8">
+        <v>228.5</v>
+      </c>
+      <c r="D34" s="9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="9">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="8">
+        <v>219.85</v>
+      </c>
+      <c r="D58" s="9">
+        <f>+C58/1.38</f>
+        <v>159.31159420289856</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="8">
+        <v>205.14</v>
+      </c>
+      <c r="D59" s="9">
+        <f>+C59/1.5</f>
+        <v>136.76</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="8">
-        <v>95.7</v>
-      </c>
-      <c r="D15" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="C62" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="8">
-        <v>86.84</v>
-      </c>
-      <c r="D21" s="9">
-        <f>+C21/1.2</f>
-        <v>72.366666666666674</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="8">
-        <v>48.9</v>
-      </c>
-      <c r="D22" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="8">
-        <v>3215.04</v>
-      </c>
-      <c r="D23" s="9">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="8">
-        <v>126.46</v>
-      </c>
-      <c r="D24" s="9">
-        <f>+C24/2</f>
-        <v>63.23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="8">
-        <v>165.05</v>
-      </c>
-      <c r="D25" s="9">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="8">
-        <v>20.69</v>
-      </c>
-      <c r="D27" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="8">
-        <v>22.77</v>
-      </c>
-      <c r="D29" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="8">
-        <v>228.5</v>
-      </c>
-      <c r="D30" s="9">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="8">
-        <v>18.66</v>
-      </c>
-      <c r="D32" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="8">
-        <v>135.13999999999999</v>
-      </c>
-      <c r="D36" s="9">
-        <v>83.6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="8">
-        <v>479</v>
-      </c>
-      <c r="D41" s="9">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="8">
-        <v>152.65</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="8">
-        <v>2089</v>
-      </c>
-      <c r="D45" s="9">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="8">
-        <v>173.97</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="8">
-        <v>171.72</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="8">
-        <v>8.4</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="8">
-        <v>219.85</v>
-      </c>
-      <c r="D54" s="9">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="8">
-        <v>205.14</v>
-      </c>
-      <c r="D55" s="9">
-        <f>+C55/1.5</f>
-        <v>136.76</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="8">
-        <v>36.549999999999997</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="8">
-        <v>183.05</v>
-      </c>
-      <c r="D57" s="8">
-        <v>54.863725490196096</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="8">
-        <v>105.54</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1505,72 +1385,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839497E9-6DBD-400A-BFC3-2FB0D9006545}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="1.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="20">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
-        <f>+A1+1</f>
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
-        <f t="shared" ref="A3:A7" si="0">+A2+1</f>
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\models\modelz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C1053B-10DD-47D3-81FF-C695435F3A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{071D54B8-40B7-4EEE-A9A5-3E6B0E2905B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="2205" windowWidth="43200" windowHeight="11385" xr2:uid="{95705682-6DEC-4651-AA93-826AF7011AAB}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{95705682-6DEC-4651-AA93-826AF7011AAB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Note" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
   <si>
     <t>Stock Name</t>
   </si>
@@ -134,9 +135,6 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>Anglo American Platinum</t>
-  </si>
-  <si>
     <t>ASML</t>
   </si>
   <si>
@@ -275,52 +273,94 @@
     <t>First Solar</t>
   </si>
   <si>
-    <t>Cal-Maine Foods</t>
-  </si>
-  <si>
-    <t>IntChains Group</t>
-  </si>
-  <si>
-    <t>70x PE for what???</t>
-  </si>
-  <si>
-    <t>dying</t>
+    <t>Baxter International</t>
+  </si>
+  <si>
+    <t>ICU Medical</t>
+  </si>
+  <si>
+    <t>&lt;35</t>
+  </si>
+  <si>
+    <t>&lt;8</t>
+  </si>
+  <si>
+    <t>Ferroglobe</t>
+  </si>
+  <si>
+    <t>hell nah</t>
+  </si>
+  <si>
+    <t>WOW</t>
+  </si>
+  <si>
+    <t>Howmet Aerospace</t>
+  </si>
+  <si>
+    <t>careful</t>
+  </si>
+  <si>
+    <t>maybe 2 yrs too early</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>DEAD</t>
+  </si>
+  <si>
+    <t>Too early</t>
+  </si>
+  <si>
+    <t>ew</t>
+  </si>
+  <si>
+    <t>PonyAI</t>
+  </si>
+  <si>
+    <t>check legitimacy FH</t>
+  </si>
+  <si>
+    <t>Kingsoft</t>
+  </si>
+  <si>
+    <t>check GPU</t>
+  </si>
+  <si>
+    <t>Equinix</t>
+  </si>
+  <si>
+    <t>GDS Holdings</t>
+  </si>
+  <si>
+    <t>Hesai Technologies</t>
+  </si>
+  <si>
+    <t>Amer Sports</t>
+  </si>
+  <si>
+    <t>SuneVision</t>
+  </si>
+  <si>
+    <t>NetGear</t>
+  </si>
+  <si>
+    <t>35% FCFF???</t>
+  </si>
+  <si>
+    <t>need to check maxar</t>
+  </si>
+  <si>
+    <t>Spire Global</t>
+  </si>
+  <si>
+    <t>DD FASTER NEXT TIME</t>
+  </si>
+  <si>
+    <t>dd so slow I fumbled</t>
   </si>
   <si>
     <t>Globalstar, Inc.</t>
-  </si>
-  <si>
-    <t>Spire Global</t>
-  </si>
-  <si>
-    <t>Salesforce</t>
-  </si>
-  <si>
-    <t>AppLovin</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>need to check maxar</t>
-  </si>
-  <si>
-    <t>new car is so ugly</t>
-  </si>
-  <si>
-    <t>dd roadmap to 2028</t>
-  </si>
-  <si>
-    <t>dd so slow I fumbled</t>
-  </si>
-  <si>
-    <t>DD FASTER NEXT TIME</t>
-  </si>
-  <si>
-    <t>yeah this bad boy going to 150 selling to gym bros</t>
-  </si>
-  <si>
-    <t>catch up w sales rep</t>
   </si>
 </sst>
 </file>
@@ -330,7 +370,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,23 +384,26 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -448,10 +491,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -485,15 +527,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,8 +556,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -851,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47BAB04-299C-4B1D-A1B7-A616FD6A37A4}">
-  <dimension ref="B1:U62"/>
+  <dimension ref="B1:W69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H49" activeCellId="1" sqref="B59 H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
@@ -1000,377 +1039,646 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
+      <c r="C4" s="8">
+        <v>55.35</v>
+      </c>
+      <c r="D4" s="9">
+        <f>+C4*0.85</f>
+        <v>47.047499999999999</v>
+      </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>26</v>
       </c>
+      <c r="C5" s="8">
+        <v>234.96</v>
+      </c>
+      <c r="D5" s="9">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="8">
+        <v>496.29</v>
+      </c>
+      <c r="D6" s="9">
+        <v>307.69979999999998</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="8">
+        <v>152.47</v>
+      </c>
+      <c r="D11" s="9">
+        <f>+C11/3</f>
+        <v>50.823333333333331</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>32</v>
       </c>
+      <c r="C12" s="8">
+        <v>720</v>
+      </c>
+      <c r="D12" s="9">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="8">
-        <v>152.47</v>
+        <v>26.71</v>
       </c>
       <c r="D13" s="9">
-        <f>+C13/3</f>
-        <v>50.823333333333331</v>
+        <f>+C13/1.5</f>
+        <v>17.806666666666668</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
+      <c r="C14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8">
-        <v>26.71</v>
+        <v>95.7</v>
       </c>
       <c r="D15" s="9">
-        <f>+C15/1.5</f>
-        <v>17.806666666666668</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C21" s="8">
+        <v>86.84</v>
+      </c>
+      <c r="D21" s="9">
+        <f>+C21/1.2</f>
+        <v>72.366666666666674</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="8">
+        <v>48.9</v>
+      </c>
+      <c r="D22" s="9">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C23" s="8">
+        <v>3215.04</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2800</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="8">
-        <v>48.9</v>
+        <v>126.46</v>
       </c>
       <c r="D24" s="9">
-        <v>40</v>
+        <f>+C24/2</f>
+        <v>63.23</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>93</v>
+        <v>46</v>
+      </c>
+      <c r="C25" s="8">
+        <v>165.05</v>
+      </c>
+      <c r="D25" s="9">
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C27" s="8">
+        <v>20.69</v>
+      </c>
+      <c r="D27" s="9">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="C29" s="8">
+        <v>22.77</v>
+      </c>
+      <c r="D29" s="9">
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="C30" s="8">
+        <v>228.5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C32" s="8">
+        <v>18.66</v>
+      </c>
+      <c r="D32" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="8">
-        <v>228.5</v>
+        <v>55</v>
       </c>
       <c r="D34" s="9">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C36" s="8">
+        <v>135.13999999999999</v>
+      </c>
+      <c r="D36" s="9">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="L40" s="13"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="C41" s="8">
+        <v>479</v>
       </c>
       <c r="D41" s="9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="C42" s="8">
+        <v>152.65</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>89</v>
+        <v>66</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2089</v>
       </c>
       <c r="D45" s="9">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="C48" s="8">
+        <v>173.97</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="C49" s="8">
+        <v>171.72</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>85</v>
+        <v>72</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="C53" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="C54" s="8">
+        <v>219.85</v>
+      </c>
+      <c r="D54" s="9">
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="C55" s="8">
+        <v>205.14</v>
+      </c>
+      <c r="D55" s="9">
+        <f>+C55/1.5</f>
+        <v>136.76</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="C56" s="8">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="C57" s="8">
+        <v>183.05</v>
+      </c>
+      <c r="D57" s="8">
+        <v>54.863725490196096</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="8">
-        <v>219.85</v>
-      </c>
-      <c r="D58" s="9">
-        <f>+C58/1.38</f>
-        <v>159.31159420289856</v>
+        <v>82</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C59" s="8">
-        <v>205.14</v>
-      </c>
-      <c r="D59" s="9">
-        <f>+C59/1.5</f>
-        <v>136.76</v>
+        <v>105.54</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="12"/>
+        <v>92</v>
+      </c>
+      <c r="C60" s="8">
+        <v>18</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="C61" s="8">
+        <v>20</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O66" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P66" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q66" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R66" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S66" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T66" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="U66" t="s">
+        <v>84</v>
+      </c>
+      <c r="V66" t="s">
+        <v>84</v>
+      </c>
+      <c r="W66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1385,4 +1693,72 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839497E9-6DBD-400A-BFC3-2FB0D9006545}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <f>+A1+1</f>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <f t="shared" ref="A3:A7" si="0">+A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\models\modelz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{071D54B8-40B7-4EEE-A9A5-3E6B0E2905B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF255B2F-8043-4B84-8636-E225D03AEB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{95705682-6DEC-4651-AA93-826AF7011AAB}"/>
+    <workbookView xWindow="780" yWindow="150" windowWidth="35910" windowHeight="15450" xr2:uid="{95705682-6DEC-4651-AA93-826AF7011AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\models\modelz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF255B2F-8043-4B84-8636-E225D03AEB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB15CC31-863C-41D8-B7F0-451FCE903817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="150" windowWidth="35910" windowHeight="15450" xr2:uid="{95705682-6DEC-4651-AA93-826AF7011AAB}"/>
+    <workbookView xWindow="3120" yWindow="150" windowWidth="23865" windowHeight="15450" xr2:uid="{95705682-6DEC-4651-AA93-826AF7011AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
   <si>
     <t>Stock Name</t>
   </si>
@@ -342,25 +342,28 @@
     <t>SuneVision</t>
   </si>
   <si>
+    <t>need to check maxar</t>
+  </si>
+  <si>
+    <t>Spire Global</t>
+  </si>
+  <si>
+    <t>DD FASTER NEXT TIME</t>
+  </si>
+  <si>
+    <t>dd so slow I fumbled</t>
+  </si>
+  <si>
+    <t>Globalstar, Inc.</t>
+  </si>
+  <si>
+    <t>Roper</t>
+  </si>
+  <si>
     <t>NetGear</t>
   </si>
   <si>
-    <t>35% FCFF???</t>
-  </si>
-  <si>
-    <t>need to check maxar</t>
-  </si>
-  <si>
-    <t>Spire Global</t>
-  </si>
-  <si>
-    <t>DD FASTER NEXT TIME</t>
-  </si>
-  <si>
-    <t>dd so slow I fumbled</t>
-  </si>
-  <si>
-    <t>Globalstar, Inc.</t>
+    <t>check again on FCFF and customer reputation</t>
   </si>
 </sst>
 </file>
@@ -890,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47BAB04-299C-4B1D-A1B7-A616FD6A37A4}">
-  <dimension ref="B1:W69"/>
+  <dimension ref="B1:W70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H49" activeCellId="1" sqref="B59 H49"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,29 +1659,34 @@
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
